--- a/_3/ChL_Покупка_Билета_демо.xlsx
+++ b/_3/ChL_Покупка_Билета_демо.xlsx
@@ -7141,27 +7141,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">"Ms." </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Alla"</t>
+      <t>"Mr."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mario"</t>
     </r>
     <r>
       <rPr>
@@ -7181,7 +7181,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Viva"</t>
+      <t>"Turisto"</t>
     </r>
     <r>
       <rPr>
@@ -7211,17 +7211,17 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-DOCUMENT NUMBER:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "CH112233"</t>
+DOCUMENT NUMBER: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"IN112233"</t>
     </r>
     <r>
       <rPr>
@@ -7271,6 +7271,1579 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
+ISSUING COUNTRY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DATE OF BIRTH: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> /2017"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (2+)
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"CONTINUE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button  class="continue-btn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TITLE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ms."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Arina"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Baranova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Passport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT NUMBER: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"AB112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+NATIONALITY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+EXPIRY DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/2025"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ISSUING COUNTRY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DATE OF BIRTH: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/1982"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (37)
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"CONTINUE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button  class="continue-btn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">."
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"fmontsser.nasserp@ovenprices.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "991112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" unselectable
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" 
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Arina" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Baranova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : tester choice
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "557777777"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>uncheck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">list-box "Copy Form" choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Arina Baranova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Arina" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Baranova" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ArinaB@gmail.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "557777777"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>unchecked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">list-box "Copy Form" choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Marina Ivanova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Marina" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Ivanova" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">0ahmed.ehtelalm@highvideo.ru" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "557777777"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>uncheck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">."
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"fmontsser.nasserp@ovenprices.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "991112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">unchecked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">."
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"fmontsser.nasserp@ovenprices.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "661112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">unchecked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TITLE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Ms." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Alla"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Viva"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Passport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT NUMBER:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "CH112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+NATIONALITY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+EXPIRY DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/2025"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 ISSUING COUNTRY:</t>
     </r>
     <r>
@@ -7301,16 +8874,35 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">"20/12/2007"   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (12)
+      <t xml:space="preserve">"20/12/2008"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 click </t>
     </r>
     <r>
@@ -7341,1579 +8933,6 @@
         <charset val="204"/>
       </rPr>
       <t>id="tab-contactinfo"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Mr."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mario"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"IN112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>today</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> /2017"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (2+)
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"CONTINUE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  class="continue-btn"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ms."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Arina"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Baranova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"AB112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/1982"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (37)
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"CONTINUE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  class="continue-btn"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" left</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">."
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"fmontsser.nasserp@ovenprices.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "991112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" unselectable
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" 
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Arina" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Baranova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : tester choice
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "557777777"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>uncheck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">list-box "Copy Form" choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Arina Baranova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Arina" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Baranova" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ArinaB@gmail.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "557777777"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>unchecked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">check </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">list-box "Copy Form" choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Marina Ivanova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Marina" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Ivanova" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">0ahmed.ehtelalm@highvideo.ru" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "557777777"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>uncheck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" left</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">."
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"fmontsser.nasserp@ovenprices.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "991112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">unchecked </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" left</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">."
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"fmontsser.nasserp@ovenprices.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "661112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">unchecked </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
     </r>
   </si>
 </sst>
@@ -8921,7 +8940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9092,6 +9111,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -9392,34 +9418,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9441,8 +9441,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9456,17 +9467,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -9491,6 +9505,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -9833,10 +9859,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105019975"/>
-          <c:y val="0.34111176320887565"/>
-          <c:w val="0.50984843296603055"/>
-          <c:h val="0.54407855247157166"/>
+          <c:x val="0.2428684510501998"/>
+          <c:y val="0.34111176320887576"/>
+          <c:w val="0.50984843296603066"/>
+          <c:h val="0.54407855247157189"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -9951,7 +9977,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10094,7 +10120,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -10110,7 +10135,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10242,7 +10267,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10277,7 +10302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -10368,7 +10392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -10384,7 +10407,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10411,7 +10434,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -10512,13 +10534,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10564,7 +10585,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -10572,10 +10592,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105019986"/>
-          <c:y val="0.34111176320887587"/>
-          <c:w val="0.50984843296603077"/>
-          <c:h val="0.54407855247157211"/>
+          <c:x val="0.24286845105019991"/>
+          <c:y val="0.34111176320887593"/>
+          <c:w val="0.50984843296603088"/>
+          <c:h val="0.54407855247157233"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -10675,7 +10695,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -10691,7 +10710,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11580,8 +11599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11594,16 +11613,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
@@ -11626,16 +11645,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
@@ -11649,58 +11668,58 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="89.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
-      <c r="A6" s="56"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="127.5">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="102.75" thickBot="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" thickTop="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="66" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="13"/>
@@ -11709,58 +11728,58 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="89.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="127.5">
-      <c r="A12" s="56"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="115.5" thickBot="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="60"/>
+        <v>132</v>
+      </c>
+      <c r="D13" s="62"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39" thickTop="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="66" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="13"/>
@@ -11769,242 +11788,242 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="89.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="3"/>
       <c r="F15" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5">
-      <c r="A16" s="56"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="59"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="61"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="60"/>
+        <v>133</v>
+      </c>
+      <c r="D18" s="62"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" customHeight="1" thickTop="1">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="68" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="57" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="89.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="25.5">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="127.5">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="68"/>
+        <v>131</v>
+      </c>
+      <c r="D22" s="58"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="69"/>
+        <v>134</v>
+      </c>
+      <c r="D23" s="59"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="39" thickTop="1">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="102">
-      <c r="A25" s="65"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="38.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="68"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="114.75">
-      <c r="A27" s="65"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="127.5">
-      <c r="A28" s="65"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="90" thickBot="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="51" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="89.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="68"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="38.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="68"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="127.5">
-      <c r="A33" s="65"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="68"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="127.5">
-      <c r="A34" s="65"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="69"/>
+        <v>135</v>
+      </c>
+      <c r="D35" s="59"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -12016,6 +12035,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D4:D8"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="D24:D29"/>
@@ -12031,11 +12055,6 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D4:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="D4 D19 D24 D30 D9">
     <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Testing">
@@ -12109,16 +12128,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="51">
       <c r="A2" s="1" t="s">
@@ -12141,314 +12160,314 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="55"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="51" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="89.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="127.5">
-      <c r="A6" s="56"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="68" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="68"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="25.5">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="127.5">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="68"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="127.5">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="68"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="75"/>
+        <v>136</v>
+      </c>
+      <c r="D13" s="83"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="84" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="78" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="89.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="80"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="29"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="80"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="127.5">
-      <c r="A18" s="80"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="114.75">
-      <c r="A19" s="81"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="84"/>
+        <v>137</v>
+      </c>
+      <c r="D19" s="80"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="51" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="58" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="102">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="127.5">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="127.5">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="23"/>
       <c r="F24" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="75"/>
+        <v>137</v>
+      </c>
+      <c r="D25" s="83"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.25" thickTop="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="89.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="25.5">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="127.5">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="D30" s="62"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
         <v>85</v>
@@ -12457,11 +12476,11 @@
     <row r="31" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B26:B30"/>
@@ -12469,11 +12488,11 @@
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 D8">
     <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Testing">

--- a/_3/ChL_Покупка_Билета_демо.xlsx
+++ b/_3/ChL_Покупка_Билета_демо.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Оглаление" sheetId="5" r:id="rId1"/>
@@ -714,72 +714,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Choose order settings</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Flight choose</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C29" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-PASSANGER_1 info</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C30" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-PASSANGER_2 info</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t xml:space="preserve">Чек-Лист заказа билетов </t>
   </si>
@@ -4060,210 +4000,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Mr."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"KJ112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/1982"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (37)
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"CONTINUE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  class="continue-btn"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">list-box "Copy Form" left </t>
     </r>
     <r>
@@ -4958,22 +4694,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ограничение на выбор ДР на 2 года назад от </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сегодня
-При выборе ДР при которой на момент вылета будет 3 год ERROR</t>
-    </r>
-  </si>
-  <si>
     <t>FOR NEGATIVE</t>
   </si>
   <si>
@@ -4993,218 +4713,6 @@
   </si>
   <si>
     <t>invalid input</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в одну сторону 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">младенцу 2 года на момент вылета будет </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>radiobutton:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "ONE WAY"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FLIGHT FROM":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Kiev (KBP)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"'FLIGHT TO": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"BATUMI (BUS)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"DEPARTURE DATE": tester choice (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NOT today or tomorrow)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"PASSANGERS": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1 (1adult 1 child)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"SEARCH PERIOD": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EXACT DAY"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"FLIGHT SERACH"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="searchtrip"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c ребёнком (незарегестрированного пользователя на себя и ребёнка) в одну сторону 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Ребёнку</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> года на момент заказа билета, во время вылета будет 3</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5501,45 +5009,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в две стороны 
-младенцу </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2 года на момент вылета  но будет </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> на момент возращения</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">"TITLE": </t>
     </r>
     <r>
@@ -5765,377 +5234,6 @@
   </si>
   <si>
     <t>untestable</t>
-  </si>
-  <si>
-    <r>
-      <t>radiobutton:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "ONE WAY"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FLIGHT FROM":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Kiev (KBP)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"'FLIGHT TO": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"BATUMI (BUS)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"DEPARTURE DATE": tester choice 
-"RETURN DATE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>max possible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"PASSANGERS": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1 (1adult 1 infants)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"SEARCH PERIOD": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EXACT DAY"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"FLIGHT SERACH"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="searchtrip"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Mr."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mario"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"IN112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>more then DEPART less then RETURN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> /2017"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (2+)
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"CONTINUE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  class="continue-btn"</t>
-    </r>
   </si>
   <si>
     <t>AR: "CHECKOUT" page opened, 
@@ -7141,7 +6239,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Mr."</t>
+      <t>"Ms."</t>
     </r>
     <r>
       <rPr>
@@ -7161,7 +6259,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> "Mario"</t>
+      <t xml:space="preserve"> "Arina"</t>
     </r>
     <r>
       <rPr>
@@ -7181,7 +6279,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Turisto"</t>
+      <t>"Baranova"</t>
     </r>
     <r>
       <rPr>
@@ -7221,7 +6319,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"IN112233"</t>
+      <t>"AB112233"</t>
     </r>
     <r>
       <rPr>
@@ -7301,37 +6399,16 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>today</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> /2017"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (2+)
+      <t>"20/12/1982"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (37)
 click </t>
     </r>
     <r>
@@ -7356,6 +6433,1150 @@
   </si>
   <si>
     <r>
+      <t>list-box "Copy Form" left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">."
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"fmontsser.nasserp@ovenprices.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "991112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" unselectable
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" 
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Arina" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Baranova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : tester choice
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "557777777"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>uncheck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">list-box "Copy Form" choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Arina Baranova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Arina" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Baranova" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ArinaB@gmail.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "557777777"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>unchecked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">list-box "Copy Form" choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Marina Ivanova"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Marina" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"Ivanova" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(filled)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">0ahmed.ehtelalm@highvideo.ru" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "557777777"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>uncheck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">."
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"fmontsser.nasserp@ovenprices.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "991112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">unchecked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>list-box "Copy Form" left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"TITLE":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">."
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"EMAIL" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"fmontsser.nasserp@ovenprices.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"MOBILE PHONE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"+380" "661112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+checkbox " REMEMBER MY DETAILS" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">unchecked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">by default
+checkbox "CREATE ACCOUNT FOR ME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">uncheck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"GO DIRECTLY TO PAYMEN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="continue-checkout"</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">"TITLE": </t>
     </r>
     <r>
@@ -7366,27 +7587,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Ms."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Arina"</t>
+      <t xml:space="preserve">"Ms." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Alla"</t>
     </r>
     <r>
       <rPr>
@@ -7406,7 +7627,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Baranova"</t>
+      <t>"Viva"</t>
     </r>
     <r>
       <rPr>
@@ -7436,17 +7657,17 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"AB112233"</t>
+DOCUMENT NUMBER:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "CH112233"</t>
     </r>
     <r>
       <rPr>
@@ -7496,26 +7717,26 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
+ISSUING COUNTRY:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Ukraine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" 
 DATE OF BIRTH: </t>
     </r>
     <r>
@@ -7526,16 +7747,35 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"20/12/1982"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (37)
+      <t xml:space="preserve">"20/12/2008"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 click </t>
     </r>
     <r>
@@ -7546,71 +7786,257 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"CONTINUE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  class="continue-btn"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" left</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">."
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Pablo"</t>
+      <t>"CONTACT INFORMATION"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>id="tab-contactinfo"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>radiobutton:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "ONE WAY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FLIGHT FROM":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Kiev (KBP)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"'FLIGHT TO": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"BATUMI (BUS)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"DEPARTURE DATE": tester choice 
+"RETURN DATE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max possible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"PASSANGERS": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1 (1adult 1 infants)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"SEARCH PERIOD": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EXACT DAY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"FLIGHT SERACH"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="searchtrip"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в одну сторону 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">младенцу 2 года на момент </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>вылета</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> будет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TITLE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Mr."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pablo"</t>
     </r>
     <r>
       <rPr>
@@ -7640,1130 +8066,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-"EMAIL" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"fmontsser.nasserp@ovenprices.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "991112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" unselectable
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" 
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Arina" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Baranova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : tester choice
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "557777777"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>uncheck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">list-box "Copy Form" choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Arina Baranova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Arina" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Baranova" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ArinaB@gmail.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "557777777"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>unchecked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">check </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">list-box "Copy Form" choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Marina Ivanova"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Marina" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Ivanova" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(filled)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">0ahmed.ehtelalm@highvideo.ru" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "557777777"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>uncheck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" left</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">."
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"fmontsser.nasserp@ovenprices.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "991112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">unchecked </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>list-box "Copy Form" left</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"TITLE":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">."
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"EMAIL" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"fmontsser.nasserp@ovenprices.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"+380" "661112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-checkbox " REMEMBER MY DETAILS" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">unchecked </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">by default
-checkbox "CREATE ACCOUNT FOR ME" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">uncheck </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"GO DIRECTLY TO PAYMEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="continue-checkout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Ms." </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Alla"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Viva"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
 DOCUMENT TYPE: </t>
     </r>
     <r>
@@ -8784,17 +8086,17 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-DOCUMENT NUMBER:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "CH112233"</t>
+DOCUMENT NUMBER: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PT112233"</t>
     </r>
     <r>
       <rPr>
@@ -8844,26 +8146,26 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-ISSUING COUNTRY:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Ukraine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" 
+ISSUING COUNTRY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 DATE OF BIRTH: </t>
     </r>
     <r>
@@ -8874,26 +8176,143 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">"20/12/2008"   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(11)</t>
+      <t>"20/12/1982"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (37)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>radiobutton:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "ONE WAY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FLIGHT FROM":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Kiev (KBP)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"'FLIGHT TO": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"BATUMI (BUS)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"DEPARTURE DATE": tester choice (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>NOT today or tomorrow)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"PASSANGERS": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2 (1adult 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>child)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"SEARCH PERIOD": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EXACT DAY"</t>
     </r>
     <r>
       <rPr>
@@ -8913,26 +8332,341 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"CONTACT INFORMATION"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>id="tab-contactinfo"</t>
+      <t>"FLIGHT SERACH"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="searchtrip"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c ребёнком (незарегестрированного пользователя на себя и ребёнка) в одну сторону 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ребёнку</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> год на момент </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>заказа билета</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, во время вылета будет 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TITLE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Mr."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mario"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Passport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT NUMBER: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"IN112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+NATIONALITY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+EXPIRY DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/2025"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ISSUING COUNTRY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DATE OF BIRTH: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>more then DEPART less then RETURN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> /2017"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (1+)
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"CONTINUE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button  class="continue-btn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в две стороны 
+младенцу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 года на момент вылета  но будет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на момент возращения</t>
     </r>
   </si>
 </sst>
@@ -8940,7 +8674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9119,6 +8853,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -9286,7 +9035,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9359,25 +9108,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -9405,6 +9139,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9482,24 +9219,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9509,15 +9228,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9526,112 +9236,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF434343"/>
-          <bgColor rgb="FF434343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF434343"/>
-          <bgColor rgb="FF434343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF434343"/>
-          <bgColor rgb="FF434343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -9859,10 +9464,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2428684510501998"/>
-          <c:y val="0.34111176320887576"/>
-          <c:w val="0.50984843296603066"/>
-          <c:h val="0.54407855247157189"/>
+          <c:x val="0.24286845105019991"/>
+          <c:y val="0.34111176320887593"/>
+          <c:w val="0.50984843296603088"/>
+          <c:h val="0.54407855247157233"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -9977,7 +9582,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10135,7 +9740,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10267,7 +9872,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10407,7 +10012,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10539,7 +10144,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10592,10 +10197,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105019991"/>
-          <c:y val="0.34111176320887593"/>
-          <c:w val="0.50984843296603088"/>
-          <c:h val="0.54407855247157233"/>
+          <c:x val="0.24286845105019997"/>
+          <c:y val="0.34111176320887615"/>
+          <c:w val="0.50984843296603111"/>
+          <c:h val="0.54407855247157277"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -10710,7 +10315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11191,43 +10796,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="35"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="19"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="50"/>
-      <c r="S2" s="41"/>
+      <c r="H2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="1:19" ht="30">
       <c r="A3" s="19">
@@ -11245,7 +10850,7 @@
         <f>Check_list_Positive!D4</f>
         <v>Checked</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
@@ -11255,27 +10860,27 @@
         <f>COUNTIF(E3:E8,G3)</f>
         <v>5</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="36">
         <f>H3:H3/H7</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="40">
         <f>COUNTIF(E17:E22,G3)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="36">
         <f>J3/J7</f>
         <v>0.25</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="40">
         <f>H3+J3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="36">
         <f>L3/L7</f>
         <v>0.6</v>
       </c>
-      <c r="S3" s="41"/>
+      <c r="S3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="30">
       <c r="A4" s="19">
@@ -11293,7 +10898,7 @@
         <f>Check_list_Positive!D9</f>
         <v>Checked</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
@@ -11303,27 +10908,27 @@
         <f>COUNTIF(E3:E8,G4)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="36">
         <f>H4/H7</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="40">
         <f>COUNTIF(E17:E22,G4)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="36">
         <f>J4/J7</f>
         <v>0.75</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="40">
         <f>H4+J4</f>
         <v>4</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="36">
         <f>L4/L7</f>
         <v>0.4</v>
       </c>
-      <c r="S4" s="41"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="1:19" ht="30">
       <c r="A5" s="19">
@@ -11341,37 +10946,37 @@
         <f>Check_list_Positive!D14</f>
         <v>Checked</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <f>COUNTIF(E3:E7,G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="36">
         <f>H5/H7</f>
         <v>0</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="40">
         <f>COUNTIF(E17:E22,G5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="36">
         <f>J5/J7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="40">
         <f>H5+J5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="36">
         <f>L5/L7</f>
         <v>0</v>
       </c>
-      <c r="S5" s="41"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="30">
       <c r="A6" s="19">
@@ -11389,33 +10994,33 @@
         <f>Check_list_Positive!D19</f>
         <v>Failed</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="7">
         <f>COUNTIF(E3:E8,G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="36">
         <f>H6/H7</f>
         <v>0</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="40">
         <f>COUNTIF(E17:E22,G6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="36">
         <f>J6/J7</f>
         <v>0</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="40">
         <f>H6+J6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="36">
         <f>L6/L7</f>
         <v>0</v>
       </c>
@@ -11436,22 +11041,22 @@
         <f>Check_list_Positive!D24</f>
         <v>Checked</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="44">
+        <v>117</v>
+      </c>
+      <c r="H7" s="39">
         <f>SUM(H3:H6)</f>
         <v>6</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="46">
+      <c r="I7" s="31"/>
+      <c r="J7" s="41">
         <f>SUM(J3:J6)</f>
         <v>4</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="40">
         <f>H7+J7</f>
         <v>10</v>
       </c>
@@ -11472,68 +11077,68 @@
         <f>Check_list_Positive!D30</f>
         <v>Checked</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="30">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="37" t="s">
+      <c r="C18" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="41"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="45">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="41"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="41"/>
+      <c r="I20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11546,42 +11151,42 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11599,7 +11204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -11613,16 +11218,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
@@ -11645,16 +11250,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
@@ -11668,58 +11273,58 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="89.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="127.5">
-      <c r="A7" s="64"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="102.75" thickBot="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="D8" s="58"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" thickTop="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="13"/>
@@ -11728,58 +11333,58 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="89.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="127.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="61"/>
+        <v>104</v>
+      </c>
+      <c r="D12" s="57"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="115.5" thickBot="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="62"/>
+        <v>123</v>
+      </c>
+      <c r="D13" s="58"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39" thickTop="1">
-      <c r="A14" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>105</v>
+      <c r="A14" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="13"/>
@@ -11788,242 +11393,242 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="89.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="61"/>
+        <v>99</v>
+      </c>
+      <c r="D15" s="57"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="29" t="s">
-        <v>108</v>
+      <c r="F15" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="57"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="62"/>
+        <v>124</v>
+      </c>
+      <c r="D18" s="58"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" customHeight="1" thickTop="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="53" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="89.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="25.5">
-      <c r="A21" s="63"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="127.5">
-      <c r="A22" s="63"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="58"/>
+        <v>122</v>
+      </c>
+      <c r="D22" s="54"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="D23" s="55"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="39" thickTop="1">
-      <c r="A24" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="102">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="38.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="114.75">
-      <c r="A27" s="55"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="127.5">
-      <c r="A28" s="55"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="58"/>
+        <v>105</v>
+      </c>
+      <c r="D28" s="54"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="90" thickBot="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>83</v>
+      <c r="B30" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="89.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="38.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="127.5">
-      <c r="A33" s="55"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="58"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="127.5">
-      <c r="A34" s="55"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="58"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="59"/>
+        <v>126</v>
+      </c>
+      <c r="D35" s="55"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -12057,42 +11662,42 @@
     <mergeCell ref="D14:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12112,10 +11717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12128,16 +11733,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" ht="51">
       <c r="A2" s="1" t="s">
@@ -12160,322 +11765,268 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="70"/>
-      <c r="B3" s="51" t="s">
-        <v>109</v>
+      <c r="A3" s="66"/>
+      <c r="B3" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="56" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="89.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="127.5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="61"/>
+        <v>102</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="62"/>
+        <v>79</v>
+      </c>
+      <c r="D7" s="58"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="68" t="s">
-        <v>93</v>
+      <c r="A8" s="50"/>
+      <c r="B8" s="64" t="s">
+        <v>131</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="58"/>
+        <v>83</v>
+      </c>
+      <c r="D9" s="54"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="25.5">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="127.5">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="58"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="127.5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="58"/>
+        <v>94</v>
+      </c>
+      <c r="D12" s="54"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="83"/>
+        <v>127</v>
+      </c>
+      <c r="D13" s="73"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="89.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+    <row r="15" spans="1:6" ht="92.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="76"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="76"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="127.5">
-      <c r="A18" s="76"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33" t="s">
-        <v>97</v>
+      <c r="A18" s="59"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="114.75">
-      <c r="A19" s="77"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="80"/>
+        <v>128</v>
+      </c>
+      <c r="D19" s="73"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="51" t="s">
-        <v>99</v>
+      <c r="A20" s="66"/>
+      <c r="B20" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="54" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="102">
-      <c r="A21" s="63"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="58"/>
+        <v>130</v>
+      </c>
+      <c r="D21" s="54"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="63"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="127.5">
-      <c r="A23" s="63"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="58"/>
+        <v>104</v>
+      </c>
+      <c r="D23" s="54"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="127.5">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="58"/>
+        <v>135</v>
+      </c>
+      <c r="D24" s="54"/>
       <c r="E24" s="23"/>
       <c r="F24" s="24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="83"/>
+        <v>128</v>
+      </c>
+      <c r="D25" s="73"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="26.25" thickTop="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="89.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="25.5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="127.5">
-      <c r="A29" s="64"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="26" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A7"/>
@@ -12483,99 +12034,36 @@
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="D26:D30"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="A20:A25"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D8">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Testing">
+  <conditionalFormatting sqref="D3 D8 D14 D20">
+    <cfRule type="containsText" dxfId="3" priority="20" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D8">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Checked">
+  <conditionalFormatting sqref="D3 D8 D14 D20">
+    <cfRule type="containsText" dxfId="2" priority="19" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D8">
-    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="D3 D8 D14 D20">
+    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D8">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="D3 D8 D14 D20">
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH(("Testing"),(D14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(D14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(D14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(D14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(D26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH(("Testing"),(D20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(D20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(D20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(D20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH(("Testing"),(D26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(D26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(D26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D3 D8 D14 D20 D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D3 D8 D14 D20">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12583,7 +12071,8 @@
     <hyperlink ref="C1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12673,32 +12162,32 @@
       <c r="B2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
       <c r="G5" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -12709,10 +12198,10 @@
         <v>65</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -12723,10 +12212,10 @@
         <v>66</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
         <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -12735,10 +12224,10 @@
       </c>
       <c r="D8" s="20"/>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/_3/ChL_Покупка_Билета_демо.xlsx
+++ b/_3/ChL_Покупка_Билета_демо.xlsx
@@ -10,9 +10,7 @@
     <sheet name="Оглаление" sheetId="5" r:id="rId1"/>
     <sheet name="Check_list_Positive" sheetId="1" r:id="rId2"/>
     <sheet name="Check_list_Negative" sheetId="3" r:id="rId3"/>
-    <sheet name="Test Data" sheetId="2" r:id="rId4"/>
-    <sheet name="ID" sheetId="4" r:id="rId5"/>
-    <sheet name="Отчёт" sheetId="12" r:id="rId6"/>
+    <sheet name="Отчёт" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="список">Оглаление!$F$2:$F$7</definedName>
@@ -719,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t xml:space="preserve">Чек-Лист заказа билетов </t>
   </si>
@@ -1066,884 +1064,6 @@
     </r>
   </si>
   <si>
-    <t>INFORMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PASSAGER INFORMATION</t>
-  </si>
-  <si>
-    <t>CONTACT INFORMATION</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>Alexey Tester (registered)</t>
-  </si>
-  <si>
-    <r>
-      <t>EMAIL ADRESS: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AlexeyTesterQA@gmail.com"     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-PASSWORD: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1234567"        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-TITLE: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mr"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FIRST NAME: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alexey"   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-LAST NAME: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tester"     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-COMPANY NAME:  "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fop" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-COUNTRY: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-MOBILE TELEPHONE: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+380"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>665554433"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                      </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Mr"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Alexey"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     
- "LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Tester"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-DOCUMENT TYPE: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"FX112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"20/12/1986"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    (33)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"TITLE": "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mr"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "FIRST NAME": "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alexey"     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "LAST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Tester" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "EMAIL":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "AlexeyTesterQA@gmail.com"   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     
- "MOBILE PHONE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"+380"  "665554433"</t>
-    </r>
-  </si>
-  <si>
-    <t>Pablo Turisto (unregistered)</t>
-  </si>
-  <si>
-    <t>not registered</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Mr"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "FIRST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     
- "LAST NAME": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Turisto" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"KJ112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"20/12/1982"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    (37)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"TITLE": "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mr"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "FIRST NAME": "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pablo"     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "LAST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Turisto" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "EMAIL":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "fmontsser.nasserp@ovenprices.com"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     
- "MOBILE PHONE": "+380" "1112233"</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">radiobutton: </t>
     </r>
@@ -3246,45 +2366,6 @@
   </si>
   <si>
     <t>можно выбрать для контакта другого пассажира</t>
-  </si>
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>ur</t>
-  </si>
-  <si>
-    <t>unregistered</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>infants</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>registered log in</t>
-  </si>
-  <si>
-    <t>registered log off</t>
   </si>
   <si>
     <t>Bfp_li_1a_1</t>
@@ -3300,102 +2381,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Booking flight </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>positive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_unregistered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2 passagers (adult+child)_1 way</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will not be registered</t>
-    </r>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>possitive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>One way</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>wnr</t>
-  </si>
-  <si>
-    <t>will not be registered</t>
-  </si>
-  <si>
-    <t>willbe registered</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">list-box "Copy Form" left </t>
     </r>
     <r>
@@ -4691,95 +3676,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> button id="searchtrip"</t>
-    </r>
-  </si>
-  <si>
-    <t>FOR NEGATIVE</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>empty_field</t>
-  </si>
-  <si>
-    <t>invalid_age</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>invalid input</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ограничение на выбор ДР на 2 года назад от </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сегодня</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-При выборе ДР при которой на момент вылета будет 3 год ERROR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ограничение на выбор ДР только ранее чем  2 года назад от </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сегодня</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Ограничение мешает взять билет ребёнку которому на момент вылета будет 3 года</t>
     </r>
   </si>
   <si>
@@ -6088,41 +4984,6 @@
   <si>
     <t>Проверка заказа билета на одного взрослого пассажира c ребёнком (незарегестрированного пользователя на себя и ребёнка) в одну сторону 
 Ребёнку 2 года на момент заказа билета, во время вылета будет 3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ограничение на выбор ДР на 2 года назад от </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">сегодня
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ER:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">При выборе ДР при которой на момент вылета будет 3 год ERROR </t>
-    </r>
   </si>
   <si>
     <t>Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в одну сторону младенцу 2 года на момент вылета будет 3</t>
@@ -7956,6 +6817,772 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">"TITLE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Mr."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pablo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Passport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT NUMBER: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PT112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+NATIONALITY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+EXPIRY DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/2025"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ISSUING COUNTRY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DATE OF BIRTH: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/1982"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (37)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>radiobutton:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "ONE WAY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FLIGHT FROM":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Kiev (KBP)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"'FLIGHT TO": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"BATUMI (BUS)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"DEPARTURE DATE": tester choice (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>NOT today or tomorrow)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"PASSANGERS": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2 (1adult 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>child)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"SEARCH PERIOD": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EXACT DAY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"FLIGHT SERACH"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button id="searchtrip"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"TITLE": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Mr."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"FIRST NAME":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Mario"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+"LAST NAME" : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Turisto"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Passport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DOCUMENT NUMBER: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"IN112233"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+NATIONALITY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+EXPIRY DATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"20/12/2025"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ISSUING COUNTRY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Ukraine"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+DATE OF BIRTH: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>more then DEPART less then RETURN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> /2017"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    (1+)
+click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"CONTINUE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button  class="continue-btn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в две стороны 
+младенцу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 года на момент вылета  но будет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на момент возращения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ограничение на выбор ДР только ранее чем  2 года назад от </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сегодня</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Ограничение мешает взять билет ребёнку которому на момент вылета будет</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c ребёнком (незарегестрированного пользователя на себя и ребёнка) в одну сторону 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ребёнку</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> год на момент </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>заказа билета</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, во время вылета будет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ограничение на выбор ДР на не более 2 года назад от </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">сегодня
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ER:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">При выборе ДР при которой на момент вылета будет   2 год ERROR </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в одну сторону 
 </t>
     </r>
@@ -7968,7 +7595,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">младенцу 2 года на момент </t>
+      <t xml:space="preserve">младенцу 1 года на момент </t>
     </r>
     <r>
       <rPr>
@@ -8001,672 +7628,41 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>3</t>
+      <t>2</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Mr."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Pablo"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PT112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/1982"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (37)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>radiobutton:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "ONE WAY"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FLIGHT FROM":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Kiev (KBP)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"'FLIGHT TO": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"BATUMI (BUS)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"DEPARTURE DATE": tester choice (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NOT today or tomorrow)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"PASSANGERS": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2 (1adult 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>child)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"SEARCH PERIOD": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EXACT DAY"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"FLIGHT SERACH"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button id="searchtrip"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c ребёнком (незарегестрированного пользователя на себя и ребёнка) в одну сторону 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Ребёнку</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> год на момент </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>заказа билета</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, во время вылета будет 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"TITLE": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Mr."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"FIRST NAME":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Mario"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-"LAST NAME" : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Turisto"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Passport"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DOCUMENT NUMBER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"IN112233"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-NATIONALITY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-EXPIRY DATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"20/12/2025"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-ISSUING COUNTRY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Ukraine"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-DATE OF BIRTH: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>more then DEPART less then RETURN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> /2017"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">    (1+)
-click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"CONTINUE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button  class="continue-btn"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира c младенцем (незарегестрированного пользователя на себя и младенца) в две стороны 
-младенцу </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1 года на момент вылета  но будет </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> на момент возращения</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ограничение на выбор ДР на не более2 года назад от </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сегодня</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+При выборе ДР при которой на момент вылета будет 2 год ERROR</t>
     </r>
   </si>
 </sst>
@@ -8776,15 +7772,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8864,6 +7851,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -9035,7 +8030,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9052,26 +8047,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9092,10 +8072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9105,9 +8081,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9115,38 +8089,38 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9227,9 +8201,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9464,10 +8435,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105019991"/>
-          <c:y val="0.34111176320887593"/>
-          <c:w val="0.50984843296603088"/>
-          <c:h val="0.54407855247157233"/>
+          <c:x val="0.24286845105019997"/>
+          <c:y val="0.34111176320887615"/>
+          <c:w val="0.50984843296603111"/>
+          <c:h val="0.54407855247157277"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -9582,7 +8553,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9725,6 +8696,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -9740,7 +8712,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9872,7 +8844,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9907,6 +8879,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -9997,6 +8970,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -10012,7 +8986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10039,6 +9013,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -10139,12 +9114,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10190,6 +9166,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -10197,10 +9174,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105019997"/>
-          <c:y val="0.34111176320887615"/>
-          <c:w val="0.50984843296603111"/>
-          <c:h val="0.54407855247157277"/>
+          <c:x val="0.24286845105020008"/>
+          <c:y val="0.34111176320887637"/>
+          <c:w val="0.50984843296603133"/>
+          <c:h val="0.54407855247157322"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -10300,6 +9277,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -10315,7 +9293,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10411,7 +9389,7 @@
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="1381125" y="533400"/>
+    <xdr:pos x="1381125" y="19050"/>
     <xdr:ext cx="2889250" cy="2714625"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10434,16 +9412,16 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10465,15 +9443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10796,280 +9774,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="S2" s="36"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" ht="30">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="18" t="str">
         <f>Check_list_Positive!A4</f>
         <v>Bfp_li_1a_1</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="7" t="str">
         <f>Check_list_Positive!B4</f>
         <v>Проверка заказа билета на одного взрослого пассажира (залогиненого пользователя на себя) в одну сторону все данные валидны HappyPath</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="7" t="str">
         <f>Check_list_Positive!D4</f>
         <v>Checked</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>COUNTIF(E3:E8,G3)</f>
         <v>5</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="27">
         <f>H3:H3/H7</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="31">
         <f>COUNTIF(E17:E22,G3)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="27">
         <f>J3/J7</f>
         <v>0.25</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="31">
         <f>H3+J3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="27">
         <f>L3/L7</f>
         <v>0.6</v>
       </c>
-      <c r="S3" s="36"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="1:19" ht="30">
-      <c r="A4" s="19">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="18" t="str">
         <f>Check_list_Positive!A9</f>
         <v>Bfp_ur_1a_1_wnr</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="7" t="str">
         <f>Check_list_Positive!B9</f>
         <v>Проверка заказа билета на одного пассажира (незарегестрированного пользователя на себя который не хочет регистрироваться )в одну сторону все данные валидны HappyPath</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="7" t="str">
         <f>Check_list_Positive!D9</f>
         <v>Checked</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6">
         <f>COUNTIF(E3:E8,G4)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="27">
         <f>H4/H7</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="31">
         <f>COUNTIF(E17:E22,G4)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="27">
         <f>J4/J7</f>
         <v>0.75</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="31">
         <f>H4+J4</f>
         <v>4</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="27">
         <f>L4/L7</f>
         <v>0.4</v>
       </c>
-      <c r="S4" s="36"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" ht="30">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="18" t="str">
         <f>Check_list_Positive!A14</f>
         <v>Bfp_ur_1с_1_wnr</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="7" t="str">
         <f>Check_list_Positive!B14</f>
         <v>Проверка заказа билета на одного пассажира (незарегестрированного пользователя на несопровождаемого ребёнка который не хочет регистрироваться )в одну сторону все данные валидны HappyPath</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="7" t="str">
         <f>Check_list_Positive!D14</f>
         <v>Checked</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="7">
+        <v>62</v>
+      </c>
+      <c r="H5" s="6">
         <f>COUNTIF(E3:E7,G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="27">
         <f>H5/H7</f>
         <v>0</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="31">
         <f>COUNTIF(E17:E22,G5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="27">
         <f>J5/J7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="31">
         <f>H5+J5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="27">
         <f>L5/L7</f>
         <v>0</v>
       </c>
-      <c r="S5" s="36"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" ht="30">
-      <c r="A6" s="19">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="18" t="str">
         <f>Check_list_Positive!A19</f>
         <v>Bfp_ur_1a_1_wr</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="7" t="str">
         <f>Check_list_Positive!B19</f>
         <v>Проверка заказа билета на одного пассажира (незарегестрированного пользователя на себя который будет регистрироваться) в одну сторону все данные валидны HappyPath</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="7" t="str">
         <f>Check_list_Positive!D19</f>
         <v>Failed</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>30</v>
+      <c r="E6" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="7">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6">
         <f>COUNTIF(E3:E8,G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="27">
         <f>H6/H7</f>
         <v>0</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="31">
         <f>COUNTIF(E17:E22,G6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="27">
         <f>J6/J7</f>
         <v>0</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="31">
         <f>H6+J6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="27">
         <f>L6/L7</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="18" t="str">
         <f>Check_list_Positive!A24</f>
         <v>Bfp_li_2aa_1</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="7" t="str">
         <f>Check_list_Positive!B24</f>
         <v xml:space="preserve">Проверка заказа билета на двух взрослых пассажиров (залогиненым пользователем на себя и родственника) в две стороны все данные валидны </v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="7" t="str">
         <f>Check_list_Positive!D24</f>
         <v>Checked</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="39">
+      <c r="G7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="30">
         <f>SUM(H3:H6)</f>
         <v>6</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="41">
+      <c r="I7" s="22"/>
+      <c r="J7" s="32">
         <f>SUM(J3:J6)</f>
         <v>4</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="31">
         <f>H7+J7</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30">
-      <c r="A8" s="19">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="18" t="str">
         <f>Check_list_Positive!A30</f>
         <v>Bfp_ur_2aс_1_wnr</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="7" t="str">
         <f>Check_list_Positive!B30</f>
         <v xml:space="preserve">Проверка заказа билета на двух  пассажиров (взрослого и ребёнка) (незарегестрированным пользователем на себя и ребёнка 8 лет) в одну сторону все данные валидны </v>
       </c>
@@ -11077,68 +10055,68 @@
         <f>Check_list_Positive!D30</f>
         <v>Checked</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="36"/>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="30">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="32" t="s">
+      <c r="C18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="45">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="36"/>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="36"/>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11204,13 +10182,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="75.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -11218,16 +10196,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
@@ -11250,16 +10228,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25">
-      <c r="A4" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>32</v>
+      <c r="A4" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
@@ -11273,370 +10251,370 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="89.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
-      <c r="A6" s="60"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="57"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="48"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="127.5">
-      <c r="A7" s="60"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="48"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="102.75" thickBot="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" thickTop="1">
-      <c r="A9" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="A9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
-        <v>28</v>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="89.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="60"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="127.5">
-      <c r="A12" s="60"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="57"/>
+        <v>57</v>
+      </c>
+      <c r="D12" s="48"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="115.5" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>29</v>
+      <c r="A13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39" thickTop="1">
-      <c r="A14" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="54" t="s">
+      <c r="A14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14" t="s">
-        <v>28</v>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="89.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="57"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="48"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="28" t="s">
-        <v>100</v>
+      <c r="F15" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="60"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="57"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="48"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
-        <v>103</v>
+      <c r="A18" s="52"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" customHeight="1" thickTop="1">
-      <c r="A19" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="89.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="54"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="45"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="25.5">
-      <c r="A21" s="59"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="127.5">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="54"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="45"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16" t="s">
-        <v>31</v>
+      <c r="A23" s="54"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="39" thickTop="1">
-      <c r="A24" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="53" t="s">
+      <c r="A24" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="102">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="54"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="45"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="38.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="54"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="114.75">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="54"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="45"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="127.5">
-      <c r="A28" s="51"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="54"/>
+        <v>58</v>
+      </c>
+      <c r="D28" s="45"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="90" thickBot="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A30" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="53" t="s">
+      <c r="A30" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="89.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="45"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="38.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="54"/>
+        <v>24</v>
+      </c>
+      <c r="D32" s="45"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="127.5">
-      <c r="A33" s="51"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="54"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="45"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="127.5">
-      <c r="A34" s="51"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="45"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="55"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="46"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickTop="1"/>
     <row r="40" spans="1:6">
-      <c r="B40" s="18"/>
+      <c r="B40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -11719,8 +10697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11733,16 +10711,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="51">
       <c r="A2" s="1" t="s">
@@ -11765,263 +10743,263 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="66"/>
-      <c r="B3" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>30</v>
+      <c r="A3" s="57"/>
+      <c r="B3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="89.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="57"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="127.5">
-      <c r="A6" s="60"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="57"/>
+        <v>55</v>
+      </c>
+      <c r="D6" s="48"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
-        <v>80</v>
+      <c r="A7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="54"/>
+        <v>45</v>
+      </c>
+      <c r="D9" s="45"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="25.5">
-      <c r="A10" s="59"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="45"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="127.5">
-      <c r="A11" s="59"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="54"/>
+        <v>57</v>
+      </c>
+      <c r="D11" s="45"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="127.5">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>95</v>
+      <c r="A13" s="63"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>30</v>
+      <c r="A14" s="57"/>
+      <c r="B14" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="92.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="54"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="45"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="59"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="D16" s="45"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="59"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="D17" s="45"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="127.5">
-      <c r="A18" s="59"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24" t="s">
-        <v>92</v>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="114.75">
-      <c r="A19" s="72"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="73"/>
+        <v>80</v>
+      </c>
+      <c r="D19" s="64"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="102">
-      <c r="A21" s="59"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="D21" s="45"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="D22" s="45"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="127.5">
-      <c r="A23" s="59"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="54"/>
+        <v>57</v>
+      </c>
+      <c r="D23" s="45"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="127.5">
-      <c r="A24" s="59"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16" t="s">
-        <v>96</v>
+      <c r="A25" s="63"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickTop="1"/>
@@ -12078,328 +11056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:5">
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="G5" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="C6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="C7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="C8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="C9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="C10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="C11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="C12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="C13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="C14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="C15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/_3/ChL_Покупка_Билета_демо.xlsx
+++ b/_3/ChL_Покупка_Билета_демо.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Оглаление" sheetId="5" r:id="rId1"/>
@@ -8435,10 +8435,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105019997"/>
-          <c:y val="0.34111176320887615"/>
-          <c:w val="0.50984843296603111"/>
-          <c:h val="0.54407855247157277"/>
+          <c:x val="0.24286845105020008"/>
+          <c:y val="0.34111176320887637"/>
+          <c:w val="0.50984843296603133"/>
+          <c:h val="0.54407855247157322"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -8553,7 +8553,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8696,7 +8696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -8712,7 +8711,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8844,7 +8843,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8879,7 +8878,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8970,7 +8968,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -8986,7 +8983,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9013,7 +9010,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -9114,13 +9110,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9166,7 +9161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -9174,10 +9168,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105020008"/>
-          <c:y val="0.34111176320887637"/>
-          <c:w val="0.50984843296603133"/>
-          <c:h val="0.54407855247157322"/>
+          <c:x val="0.24286845105020019"/>
+          <c:y val="0.34111176320887654"/>
+          <c:w val="0.50984843296603155"/>
+          <c:h val="0.54407855247157366"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -9277,7 +9271,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -9293,7 +9286,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10182,7 +10175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -10697,7 +10690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/_3/ChL_Покупка_Билета_демо.xlsx
+++ b/_3/ChL_Покупка_Билета_демо.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Оглаление" sheetId="5" r:id="rId1"/>
     <sheet name="Check_list_Positive" sheetId="1" r:id="rId2"/>
     <sheet name="Check_list_Negative" sheetId="3" r:id="rId3"/>
-    <sheet name="Отчёт" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="список">Оглаление!$F$2:$F$7</definedName>
@@ -341,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="1">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="1">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +370,67 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="1">
+    <comment ref="C33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+PASSANGERS info</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CONTACT INFORMATION</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Choose order settings</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Flight choose</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -386,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="1">
+    <comment ref="C39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -401,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="1">
+    <comment ref="C40" authorId="1">
       <text>
         <r>
           <rPr>
@@ -427,66 +486,6 @@
     <author>Ambu</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Choose order settings</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Flight choose</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-PASSANGERS info</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-CONTACT INFORMATION</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C9" authorId="0">
       <text>
         <r>
@@ -717,7 +716,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t xml:space="preserve">Чек-Лист заказа билетов </t>
   </si>
@@ -3523,11 +3522,6 @@
     </r>
   </si>
   <si>
-    <t>ER: ERROR "Age not pass"
-AR: "CHECKOUT" page opened, 
-Timer started</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -4291,55 +4285,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">возраст пассажира </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> лет </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(ребёнок)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">"TITLE": </t>
     </r>
     <r>
@@ -4976,10 +4921,6 @@
   </si>
   <si>
     <t>Untested</t>
-  </si>
-  <si>
-    <t>Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
-возраст пассажира 12 лет (ребёнок)</t>
   </si>
   <si>
     <t>Проверка заказа билета на одного взрослого пассажира c ребёнком (незарегестрированного пользователя на себя и ребёнка) в одну сторону 
@@ -7664,6 +7605,58 @@
       <t xml:space="preserve">
 При выборе ДР при которой на момент вылета будет 2 год ERROR</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">возраст пассажира </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> лет </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(ребёнок)для оформления сопровождения</t>
+    </r>
+  </si>
+  <si>
+    <t>Bfp_ur_1ac_1</t>
   </si>
 </sst>
 </file>
@@ -8030,7 +8023,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8117,6 +8110,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8129,8 +8125,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8152,19 +8174,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8177,21 +8188,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8207,7 +8203,112 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF434343"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF434343"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF434343"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -8314,6 +8415,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF434343"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
@@ -8372,17 +8484,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF434343"/>
-          <bgColor rgb="FF434343"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -8428,6 +8529,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -8435,10 +8537,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24286845105020008"/>
-          <c:y val="0.34111176320887637"/>
-          <c:w val="0.50984843296603133"/>
-          <c:h val="0.54407855247157322"/>
+          <c:x val="0.24286845105020013"/>
+          <c:y val="0.34111176320887643"/>
+          <c:w val="0.50984843296603144"/>
+          <c:h val="0.54407855247157344"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -8518,7 +8620,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8538,6 +8640,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -8553,7 +8656,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8673,7 +8776,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -8696,6 +8799,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -8711,7 +8815,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8738,6 +8842,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -8816,10 +8921,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8838,455 +8943,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Positive tests</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:explosion val="2"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:explosion val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Оглаление!$G$3:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Checked</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Untested</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Оглаление!$H$3:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>ALL tests</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:explosion val="25"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Оглаление!$G$3:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Checked</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Untested</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Оглаление!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:style val="4"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Negative tests</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24286845105020019"/>
-          <c:y val="0.34111176320887654"/>
-          <c:w val="0.50984843296603155"/>
-          <c:h val="0.54407855247157366"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:explosion val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:explosion val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Оглаление!$G$3:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Checked</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Untested</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Оглаление!$J$3:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9296,16 +8959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>304799</xdr:rowOff>
+      <xdr:rowOff>295274</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9325,7 +8988,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="11610975" y="2409825"/>
+    <xdr:pos x="8553450" y="2933700"/>
     <xdr:ext cx="2889250" cy="2714625"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9348,107 +9011,20 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="15" name="Диаграмма 14"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="1381125" y="19050"/>
-    <xdr:ext cx="2889250" cy="2714625"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9751,24 +9327,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="113.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="25"/>
       <c r="E1" s="24"/>
       <c r="F1" s="21"/>
@@ -9778,31 +9354,31 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="14"/>
-      <c r="B2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="35"/>
+      <c r="B2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36"/>
       <c r="D2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="37" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="38"/>
       <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" ht="30">
@@ -9828,32 +9404,32 @@
         <v>8</v>
       </c>
       <c r="H3" s="6">
-        <f>COUNTIF(E3:E8,G3)</f>
-        <v>5</v>
+        <f>COUNTIF(E3:E9,G3)</f>
+        <v>6</v>
       </c>
       <c r="I3" s="27">
         <f>H3:H3/H7</f>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J3" s="31">
-        <f>COUNTIF(E17:E22,G3)</f>
+        <f>COUNTIF(E18:E23,G3)</f>
         <v>1</v>
       </c>
       <c r="K3" s="27">
         <f>J3/J7</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L3" s="31">
         <f>H3+J3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3" s="27">
         <f>L3/L7</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="S3" s="27"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="45">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -9876,32 +9452,32 @@
         <v>18</v>
       </c>
       <c r="H4" s="6">
-        <f>COUNTIF(E3:E8,G4)</f>
+        <f>COUNTIF(E3:E9,G4)</f>
         <v>1</v>
       </c>
       <c r="I4" s="27">
         <f>H4/H7</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J4" s="31">
-        <f>COUNTIF(E17:E22,G4)</f>
-        <v>3</v>
+        <f>COUNTIF(E18:E23,G4)</f>
+        <v>2</v>
       </c>
       <c r="K4" s="27">
         <f>J4/J7</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L4" s="31">
         <f>H4+J4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" s="27">
         <f>L4/L7</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S4" s="27"/>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="45">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -9921,7 +9497,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="6">
         <f>COUNTIF(E3:E7,G5)</f>
@@ -9932,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="31">
-        <f>COUNTIF(E17:E22,G5)</f>
+        <f>COUNTIF(E18:E23,G5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="27">
@@ -9949,7 +9525,7 @@
       </c>
       <c r="S5" s="27"/>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:19" ht="45">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -9969,10 +9545,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="6">
-        <f>COUNTIF(E3:E8,G6)</f>
+        <f>COUNTIF(E3:E9,G6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="27">
@@ -9980,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="31">
-        <f>COUNTIF(E17:E22,G6)</f>
+        <f>COUNTIF(E18:E23,G6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="27">
@@ -10016,94 +9592,95 @@
         <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H7" s="30">
         <f>SUM(H3:H6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32">
         <f>SUM(J3:J6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" s="31">
         <f>H7+J7</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30">
-      <c r="A8" s="14">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:19" ht="45">
+      <c r="A8" s="34"/>
       <c r="B8" s="18" t="str">
         <f>Check_list_Positive!A30</f>
-        <v>Bfp_ur_2aс_1_wnr</v>
+        <v>Bfp_ur_1ac_1</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>Check_list_Positive!B30</f>
-        <v xml:space="preserve">Проверка заказа билета на двух  пассажиров (взрослого и ребёнка) (незарегестрированным пользователем на себя и ребёнка 8 лет) в одну сторону все данные валидны </v>
-      </c>
-      <c r="D8" t="str">
-        <f>Check_list_Positive!D30</f>
-        <v>Checked</v>
-      </c>
+        <v>Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
+возраст пассажира 12 лет (ребёнок)для оформления сопровождения</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="32"/>
+      <c r="L8" s="31"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="29"/>
+    <row r="9" spans="1:19" ht="45">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>Check_list_Positive!A35</f>
+        <v>Bfp_ur_2aс_1_wnr</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>Check_list_Positive!B35</f>
+        <v xml:space="preserve">Проверка заказа билета на двух  пассажиров (взрослого и ребёнка) (незарегестрированным пользователем на себя и ребёнка 8 лет) в одну сторону все данные валидны </v>
+      </c>
+      <c r="D9" t="str">
+        <f>Check_list_Positive!D35</f>
+        <v>Checked</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="27"/>
+    <row r="17" spans="1:9">
+      <c r="B17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="23" t="s">
-        <v>8</v>
-      </c>
+    <row r="18" spans="1:9">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="23"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="45">
       <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="26"/>
       <c r="E19" s="23" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="45">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="23" t="s">
@@ -10111,9 +9688,22 @@
       </c>
       <c r="I20" s="27"/>
     </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="H2:I2"/>
@@ -10121,48 +9711,48 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="E18:E21 E3:E8">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Testing">
+  <conditionalFormatting sqref="E18:E21 E3:E8">
+    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Checked">
+  <conditionalFormatting sqref="E18:E21 E3:E8">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20 E3:E7">
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="E18:E21 E3:E8">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(E8))))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH(("Testing"),(E8))))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH(("Testing"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(E8))))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(E8))))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E17:E20 E3:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E18:E21 E3:E9">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10173,10 +9763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I40"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10189,16 +9779,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="1" t="s">
@@ -10221,16 +9811,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
@@ -10239,63 +9829,63 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <f>COUNTIF(D4:D35,H4)</f>
-        <v>5</v>
+        <f>COUNTIF(D4:D40,H4)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="89.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="127.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="102.75" thickBot="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" thickTop="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="8"/>
@@ -10304,58 +9894,58 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="89.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="127.5">
-      <c r="A12" s="51"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="48"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="47"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="115.5" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="D13" s="48"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39" thickTop="1">
-      <c r="A14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="58" t="s">
         <v>50</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8"/>
@@ -10364,262 +9954,315 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="89.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="48"/>
+        <v>51</v>
+      </c>
+      <c r="D15" s="47"/>
       <c r="E15" s="3"/>
       <c r="F15" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="51"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="48"/>
+        <v>78</v>
+      </c>
+      <c r="D17" s="47"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="49"/>
+        <v>73</v>
+      </c>
+      <c r="D18" s="48"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" customHeight="1" thickTop="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="61" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="55" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="89.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="25.5">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="127.5">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="45"/>
+        <v>71</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="57"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="39" thickTop="1">
-      <c r="A24" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="102">
-      <c r="A25" s="42"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="38.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="114.75">
-      <c r="A27" s="42"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="127.5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="D28" s="56"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="90" thickBot="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A30" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>44</v>
+    <row r="30" spans="1:6" ht="26.25" thickTop="1">
+      <c r="A30" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="89.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="45"/>
+        <v>9</v>
+      </c>
+      <c r="D31" s="47"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="38.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="39"/>
+    <row r="32" spans="1:6" ht="25.5">
+      <c r="A32" s="44"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="45"/>
+        <v>38</v>
+      </c>
+      <c r="D32" s="47"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="127.5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="128.25" thickBot="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A35" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="89.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="38.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="127.5">
+      <c r="A38" s="53"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="127.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="5" t="s">
+    <row r="39" spans="1:6" ht="127.5">
+      <c r="A39" s="53"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="D39" s="56"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4" t="s">
+    <row r="40" spans="1:6" ht="115.5" thickBot="1">
+      <c r="A40" s="54"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickTop="1"/>
-    <row r="40" spans="1:6">
-      <c r="B40" s="13"/>
+    <row r="41" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="45" spans="1:6">
+      <c r="B45" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A30:A35"/>
+  <mergeCells count="23">
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A35:A40"/>
     <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="A9:A13"/>
@@ -10631,49 +10274,75 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D4:D8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Testing">
+  <conditionalFormatting sqref="D4 D19 D24 D35 D9">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Checked">
+  <conditionalFormatting sqref="D4 D19 D24 D35 D9">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="D4 D19 D24 D35 D9">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D19 D24 D30 D9">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="D4 D19 D24 D35 D9">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH(("Testing"),(D30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(D30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(D30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(D30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D4 D14 D19 D24 D30 D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D4 D14 D19 D24 D35 D9 D30">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10691,7 +10360,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10704,16 +10373,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="51">
       <c r="A2" s="1" t="s">
@@ -10735,274 +10404,214 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="57"/>
-      <c r="B3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="89.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="127.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="55" t="s">
-        <v>90</v>
+      <c r="A8" s="52"/>
+      <c r="B8" s="61" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="89.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="56"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="25.5">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="127.5">
-      <c r="A11" s="50"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="56"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="127.5">
-      <c r="A12" s="50"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="45"/>
+        <v>46</v>
+      </c>
+      <c r="D12" s="56"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="64"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="65"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="38" t="s">
-        <v>88</v>
+      <c r="A14" s="43"/>
+      <c r="B14" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="49" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="92.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="45"/>
+        <v>81</v>
+      </c>
+      <c r="D15" s="56"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="127.5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="45"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="56"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="127.5">
-      <c r="A18" s="50"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="45"/>
+        <v>45</v>
+      </c>
+      <c r="D18" s="56"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="114.75">
-      <c r="A19" s="63"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="64"/>
+        <v>77</v>
+      </c>
+      <c r="D19" s="65"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="38" t="s">
-        <v>86</v>
+      <c r="A20" s="43"/>
+      <c r="B20" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="102">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="45"/>
+        <v>79</v>
+      </c>
+      <c r="D21" s="56"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="25.5">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="127.5">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="D23" s="56"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="127.5">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="D24" s="56"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="64"/>
+        <v>77</v>
+      </c>
+      <c r="D25" s="65"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
+  <mergeCells count="11">
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="D8:D13"/>
@@ -11012,29 +10621,31 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D8 D14 D20">
-    <cfRule type="containsText" dxfId="3" priority="20" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH(("Testing"),(D3))))</formula>
+  <conditionalFormatting sqref="D20 D8 D14">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH(("Testing"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D8 D14 D20">
-    <cfRule type="containsText" dxfId="2" priority="19" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(D3))))</formula>
+  <conditionalFormatting sqref="D20 D8 D14">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D8 D14 D20">
-    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(D3))))</formula>
+  <conditionalFormatting sqref="D20 D8 D14">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 D8 D14 D20">
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(D3))))</formula>
+  <conditionalFormatting sqref="D20 D8 D14">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D3 D8 D14 D20">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="D8 D14 D20">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11045,19 +10656,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>